--- a/data/trans_orig/KIDM_C_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70F9776C-1580-4827-A5F7-1D945FAC292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E356DE79-E557-423D-BB0C-BE45CB74A07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{52224734-46A5-436A-A901-21FAB00B4645}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8C6D701B-4CC0-4182-9687-15EA334EBE88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,117 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>96,31%</t>
   </si>
   <si>
@@ -101,9 +206,6 @@
     <t>97,18%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>3,69%</t>
   </si>
   <si>
@@ -131,64 +233,61 @@
     <t>8,01%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -242,105 +341,6 @@
     <t>6,74%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
     <t>95,89%</t>
   </si>
   <si>
@@ -398,6 +398,78 @@
     <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2012 (Tasa respuesta: 43,59%)</t>
   </si>
   <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
     <t>81,13%</t>
   </si>
   <si>
@@ -452,52 +524,52 @@
     <t>20,35%</t>
   </si>
   <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>91,31%</t>
@@ -554,78 +626,6 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
     <t>88,31%</t>
   </si>
   <si>
@@ -677,6 +677,90 @@
     <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2015 (Tasa respuesta: 45,77%)</t>
   </si>
   <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
     <t>88,1%</t>
   </si>
   <si>
@@ -689,9 +773,6 @@
     <t>87,49%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
     <t>90,16%</t>
   </si>
   <si>
@@ -707,9 +788,6 @@
     <t>17,56%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
     <t>12,51%</t>
   </si>
   <si>
@@ -719,46 +797,46 @@
     <t>13,63%</t>
   </si>
   <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>92,64%</t>
@@ -815,84 +893,6 @@
     <t>13,46%</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
     <t>89,95%</t>
   </si>
   <si>
@@ -938,6 +938,60 @@
     <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
   </si>
   <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
     <t>99,39%</t>
   </si>
   <si>
@@ -986,40 +1040,46 @@
     <t>5,4%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>96,68%</t>
@@ -1056,66 +1116,6 @@
   </si>
   <si>
     <t>7,9%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
   </si>
   <si>
     <t>98,12%</t>
@@ -1555,7 +1555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C686A3DB-10A4-4A1F-9E60-7B4000474A2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307C5513-8A49-4526-ABCC-3558BCDF0BDA}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1673,10 +1673,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>88707</v>
+        <v>11669</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1688,85 +1688,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>92216</v>
+        <v>13342</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>32</v>
+      </c>
+      <c r="N4" s="7">
+        <v>25011</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>280</v>
-      </c>
-      <c r="N4" s="7">
-        <v>180923</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>811</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3397</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6311</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>811</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>15</v>
-      </c>
-      <c r="N5" s="7">
-        <v>9708</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,54 +1775,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>92104</v>
+        <v>12480</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="I6" s="7">
-        <v>98527</v>
+        <v>13342</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>190631</v>
+        <v>25822</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1834,13 +1834,13 @@
         <v>52033</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -1849,13 +1849,13 @@
         <v>40502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -1864,19 +1864,19 @@
         <v>92536</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -1885,13 +1885,13 @@
         <v>3455</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1900,13 +1900,13 @@
         <v>3658</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -1915,13 +1915,13 @@
         <v>7113</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1936,13 @@
         <v>55488</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>66</v>
@@ -1951,13 +1951,13 @@
         <v>44160</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>151</v>
@@ -1966,117 +1966,117 @@
         <v>99649</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D10" s="7">
-        <v>84848</v>
+        <v>88707</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>145</v>
+      </c>
+      <c r="I10" s="7">
+        <v>92216</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>280</v>
+      </c>
+      <c r="N10" s="7">
+        <v>180923</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>98</v>
-      </c>
-      <c r="I10" s="7">
-        <v>75294</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="7">
-        <v>221</v>
-      </c>
-      <c r="N10" s="7">
-        <v>160142</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>3281</v>
+        <v>3397</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6311</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3015</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>15</v>
+      </c>
+      <c r="N11" s="7">
+        <v>9708</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="M11" s="7">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7">
-        <v>6296</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,114 +2085,114 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D12" s="7">
-        <v>88129</v>
+        <v>92104</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="I12" s="7">
-        <v>78309</v>
+        <v>98527</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="N12" s="7">
-        <v>166438</v>
+        <v>190631</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D13" s="7">
-        <v>11669</v>
+        <v>59604</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7">
+        <v>87</v>
+      </c>
+      <c r="I13" s="7">
+        <v>53083</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>13342</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>181</v>
+      </c>
+      <c r="N13" s="7">
+        <v>112688</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>32</v>
-      </c>
-      <c r="N13" s="7">
-        <v>25011</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>811</v>
+        <v>1773</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -2204,34 +2204,34 @@
         <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>2570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>811</v>
+        <v>4343</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,120 +2240,120 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D15" s="7">
-        <v>12480</v>
+        <v>61377</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I15" s="7">
-        <v>13342</v>
+        <v>55653</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="N15" s="7">
-        <v>25822</v>
+        <v>117031</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7">
-        <v>59604</v>
+        <v>84848</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H16" s="7">
+        <v>98</v>
+      </c>
+      <c r="I16" s="7">
+        <v>75294</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="7">
-        <v>53083</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="N16" s="7">
-        <v>112688</v>
+        <v>160142</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>1773</v>
+        <v>3281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>93</v>
@@ -2362,7 +2362,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2570</v>
+        <v>3015</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
@@ -2374,10 +2374,10 @@
         <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>4343</v>
+        <v>6296</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>97</v>
@@ -2395,49 +2395,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D18" s="7">
-        <v>61377</v>
+        <v>88129</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I18" s="7">
-        <v>55653</v>
+        <v>78309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="N18" s="7">
-        <v>117031</v>
+        <v>166438</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,7 +2496,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>20</v>
@@ -2556,13 +2556,13 @@
         <v>309578</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>431</v>
@@ -2571,13 +2571,13 @@
         <v>289992</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>897</v>
@@ -2586,13 +2586,13 @@
         <v>599571</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2613,7 +2613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E049AB90-0478-47A0-8999-9E57014D9A58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A174A0D2-40C1-403B-9CF4-BE121AAEF168}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2731,100 +2731,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>76709</v>
+        <v>14490</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10349</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>24839</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="7">
-        <v>129</v>
-      </c>
-      <c r="I4" s="7">
-        <v>85659</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="7">
-        <v>243</v>
-      </c>
-      <c r="N4" s="7">
-        <v>162367</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>27</v>
-      </c>
-      <c r="D5" s="7">
-        <v>17843</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>12178</v>
+        <v>926</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>30021</v>
+        <v>926</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,54 +2833,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>94552</v>
+        <v>14490</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>97837</v>
+        <v>11275</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>192388</v>
+        <v>25765</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2892,13 +2892,13 @@
         <v>51725</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -2907,13 +2907,13 @@
         <v>44412</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="M7" s="7">
         <v>137</v>
@@ -2922,19 +2922,19 @@
         <v>96138</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -2943,13 +2943,13 @@
         <v>5116</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -2958,13 +2958,13 @@
         <v>7759</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -2973,13 +2973,13 @@
         <v>12874</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2994,13 @@
         <v>56841</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -3009,13 +3009,13 @@
         <v>52171</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>156</v>
@@ -3024,117 +3024,117 @@
         <v>109012</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D10" s="7">
-        <v>81180</v>
+        <v>76709</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="I10" s="7">
-        <v>71885</v>
+        <v>85659</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="N10" s="7">
-        <v>153064</v>
+        <v>162367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>7726</v>
+        <v>17843</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>13840</v>
+        <v>12178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N11" s="7">
-        <v>21566</v>
+        <v>30021</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,153 +3143,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D12" s="7">
-        <v>88906</v>
+        <v>94552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="I12" s="7">
-        <v>85725</v>
+        <v>97837</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="N12" s="7">
-        <v>174630</v>
+        <v>192388</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7">
-        <v>14490</v>
+        <v>61899</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I13" s="7">
-        <v>10349</v>
+        <v>52381</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="N13" s="7">
-        <v>24839</v>
+        <v>114280</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>7182</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7">
+        <v>12786</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M14" s="7">
+        <v>30</v>
+      </c>
+      <c r="N14" s="7">
+        <v>19968</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>926</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>926</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,147 +3298,147 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D15" s="7">
-        <v>14490</v>
+        <v>69081</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I15" s="7">
-        <v>11275</v>
+        <v>65167</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="N15" s="7">
-        <v>25765</v>
+        <v>134248</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D16" s="7">
-        <v>61899</v>
+        <v>81180</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>92</v>
+      </c>
+      <c r="I16" s="7">
+        <v>71885</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="7">
-        <v>81</v>
-      </c>
-      <c r="I16" s="7">
-        <v>52381</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>204</v>
+      </c>
+      <c r="N16" s="7">
+        <v>153064</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M16" s="7">
-        <v>179</v>
-      </c>
-      <c r="N16" s="7">
-        <v>114280</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>7182</v>
+        <v>7726</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7">
+        <v>13840</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H17" s="7">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7">
-        <v>12786</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>28</v>
+      </c>
+      <c r="N17" s="7">
+        <v>21566</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="M17" s="7">
-        <v>30</v>
-      </c>
-      <c r="N17" s="7">
-        <v>19968</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>193</v>
@@ -3453,49 +3453,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D18" s="7">
-        <v>69081</v>
+        <v>88906</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I18" s="7">
-        <v>65167</v>
+        <v>85725</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="N18" s="7">
-        <v>134248</v>
+        <v>174630</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,7 +3515,7 @@
         <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>196</v>
@@ -3554,7 +3554,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>56</v>
@@ -3569,7 +3569,7 @@
         <v>204</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -3614,13 +3614,13 @@
         <v>323869</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>444</v>
@@ -3629,13 +3629,13 @@
         <v>312174</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>915</v>
@@ -3644,13 +3644,13 @@
         <v>636043</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3671,7 +3671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F880940-AFE5-4247-8C13-E08674816073}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD8B60B-51AC-49E7-977E-17B14E899F20}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3789,10 +3789,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>91631</v>
+        <v>11455</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>212</v>
@@ -3801,88 +3801,88 @@
         <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10896</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="H4" s="7">
-        <v>143</v>
-      </c>
-      <c r="I4" s="7">
-        <v>94912</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>215</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7">
+        <v>22350</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="7">
-        <v>274</v>
-      </c>
-      <c r="N4" s="7">
-        <v>186543</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1752</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7">
-        <v>12380</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1827</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H5" s="7">
-        <v>13</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7985</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3580</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="M5" s="7">
-        <v>32</v>
-      </c>
-      <c r="N5" s="7">
-        <v>20365</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,54 +3891,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>104011</v>
+        <v>13207</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12723</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="7">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>156</v>
-      </c>
-      <c r="I6" s="7">
-        <v>102897</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>306</v>
-      </c>
       <c r="N6" s="7">
-        <v>206908</v>
+        <v>25930</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3950,13 +3950,13 @@
         <v>51710</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -3965,13 +3965,13 @@
         <v>53412</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>143</v>
@@ -3980,19 +3980,19 @@
         <v>105122</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -4001,10 +4001,10 @@
         <v>6126</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>233</v>
@@ -4052,13 +4052,13 @@
         <v>57836</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>80</v>
@@ -4067,13 +4067,13 @@
         <v>56281</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>155</v>
@@ -4082,27 +4082,27 @@
         <v>114117</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D10" s="7">
-        <v>92198</v>
+        <v>91631</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>240</v>
@@ -4114,85 +4114,85 @@
         <v>242</v>
       </c>
       <c r="H10" s="7">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="I10" s="7">
-        <v>91834</v>
+        <v>94912</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="7">
+        <v>274</v>
+      </c>
+      <c r="N10" s="7">
+        <v>186543</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M10" s="7">
-        <v>245</v>
-      </c>
-      <c r="N10" s="7">
-        <v>184031</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>7330</v>
+        <v>12380</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="7">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7">
+        <v>7985</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>32</v>
+      </c>
+      <c r="N11" s="7">
+        <v>20365</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="H11" s="7">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7">
-        <v>12050</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M11" s="7">
-        <v>25</v>
-      </c>
-      <c r="N11" s="7">
-        <v>19380</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,153 +4201,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D12" s="7">
-        <v>99528</v>
+        <v>104011</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="I12" s="7">
-        <v>103884</v>
+        <v>102897</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="N12" s="7">
-        <v>203411</v>
+        <v>206908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D13" s="7">
-        <v>11455</v>
+        <v>67117</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="7">
+        <v>98</v>
+      </c>
+      <c r="I13" s="7">
+        <v>63112</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M13" s="7">
+        <v>192</v>
+      </c>
+      <c r="N13" s="7">
+        <v>130229</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10896</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>26</v>
-      </c>
-      <c r="N13" s="7">
-        <v>22350</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7504</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6797</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M14" s="7">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1752</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="N14" s="7">
+        <v>14301</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1827</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3580</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,150 +4356,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D15" s="7">
-        <v>13207</v>
+        <v>74621</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="I15" s="7">
-        <v>12723</v>
+        <v>69909</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N15" s="7">
-        <v>25930</v>
+        <v>144530</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="D16" s="7">
-        <v>67117</v>
+        <v>92198</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H16" s="7">
+        <v>120</v>
+      </c>
+      <c r="I16" s="7">
+        <v>91834</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H16" s="7">
-        <v>98</v>
-      </c>
-      <c r="I16" s="7">
-        <v>63112</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>245</v>
+      </c>
+      <c r="N16" s="7">
+        <v>184031</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="M16" s="7">
-        <v>192</v>
-      </c>
-      <c r="N16" s="7">
-        <v>130229</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>7504</v>
+        <v>7330</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7">
+        <v>12050</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="7">
-        <v>10</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6797</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>25</v>
+      </c>
+      <c r="N17" s="7">
+        <v>19380</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M17" s="7">
-        <v>20</v>
-      </c>
-      <c r="N17" s="7">
-        <v>14301</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>283</v>
@@ -4511,49 +4511,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D18" s="7">
-        <v>74621</v>
+        <v>99528</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="I18" s="7">
-        <v>69909</v>
+        <v>103884</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="N18" s="7">
-        <v>144530</v>
+        <v>203411</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,7 +4573,7 @@
         <v>284</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>285</v>
@@ -4612,7 +4612,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>49</v>
@@ -4627,7 +4627,7 @@
         <v>292</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -4672,13 +4672,13 @@
         <v>349203</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>493</v>
@@ -4687,13 +4687,13 @@
         <v>345694</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>973</v>
@@ -4702,13 +4702,13 @@
         <v>694897</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4729,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91991BAC-7F9E-4161-93C6-1DDBCF310BC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D99075-3285-4A7A-958E-0F26D35CBD69}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4847,100 +4847,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>101713</v>
+        <v>2324</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1593</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="7">
-        <v>74</v>
-      </c>
-      <c r="I4" s="7">
-        <v>53407</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3918</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M4" s="7">
-        <v>191</v>
-      </c>
-      <c r="N4" s="7">
-        <v>155121</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>621</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>3653</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>4274</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,54 +4949,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>102334</v>
+        <v>2324</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>57060</v>
+        <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>159395</v>
+        <v>3918</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5008,13 +5008,13 @@
         <v>39873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -5023,13 +5023,13 @@
         <v>31294</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -5038,19 +5038,19 @@
         <v>71166</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -5059,13 +5059,13 @@
         <v>2092</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5074,13 +5074,13 @@
         <v>605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -5089,13 +5089,13 @@
         <v>2697</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5110,13 @@
         <v>41965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -5125,13 +5125,13 @@
         <v>31899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -5140,117 +5140,117 @@
         <v>73863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="D10" s="7">
-        <v>54471</v>
+        <v>101713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>54161</v>
+        <v>53407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="N10" s="7">
-        <v>108632</v>
+        <v>155121</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>621</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1871</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>2323</v>
+        <v>3653</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>109</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>4194</v>
+        <v>4274</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,153 +5259,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="D12" s="7">
-        <v>56342</v>
+        <v>102334</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I12" s="7">
-        <v>56484</v>
+        <v>57060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="N12" s="7">
-        <v>112826</v>
+        <v>159395</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7">
-        <v>2324</v>
+        <v>62613</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>64</v>
+      </c>
+      <c r="I13" s="7">
+        <v>53951</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>127</v>
+      </c>
+      <c r="N13" s="7">
+        <v>116564</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1593</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3918</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>422</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="G14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1558</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>343</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>344</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,147 +5414,147 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D15" s="7">
-        <v>2324</v>
+        <v>63035</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I15" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="N15" s="7">
-        <v>3918</v>
+        <v>118544</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>62613</v>
+        <v>54471</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7">
-        <v>53951</v>
+        <v>54161</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>347</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="M16" s="7">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="N16" s="7">
-        <v>116564</v>
+        <v>108632</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1871</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>422</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1558</v>
+        <v>2323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>354</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>1980</v>
+        <v>4194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>357</v>
@@ -5569,49 +5569,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D18" s="7">
-        <v>63035</v>
+        <v>56342</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I18" s="7">
-        <v>55509</v>
+        <v>56484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N18" s="7">
-        <v>118544</v>
+        <v>112826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,7 +5658,7 @@
         <v>455401</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>365</v>
@@ -5670,7 +5670,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -5709,7 +5709,7 @@
         <v>13145</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>373</v>
@@ -5730,13 +5730,13 @@
         <v>266001</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -5745,13 +5745,13 @@
         <v>202546</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>575</v>
@@ -5760,13 +5760,13 @@
         <v>468546</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_C_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E356DE79-E557-423D-BB0C-BE45CB74A07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB2BC50-1F4F-4C5F-871F-8A37A2931F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8C6D701B-4CC0-4182-9687-15EA334EBE88}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D9F1B4C-F0EF-499B-A437-F2B308262F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="375">
-  <si>
-    <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2007 (Tasa respuesta: 42,63%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,13 +71,37 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>65,93%</t>
+    <t>67,03%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,850 +116,898 @@
     <t>96,86%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>84,33%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
     <t>93,77%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>91,72%</t>
   </si>
   <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>91,9%</t>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2012 (Tasa respuesta: 43,59%)</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>91,79%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2015 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2012 (Tasa respuesta: 43,59%)</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>94,8%</t>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
   <si>
     <t>90,28%</t>
   </si>
   <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>88,4%</t>
   </si>
   <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
+    <t>87,05%</t>
+  </si>
+  <si>
     <t>92,45%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>93,1%</t>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -947,223 +1019,214 @@
     <t>76,75%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
+    <t>98,68%</t>
+  </si>
+  <si>
     <t>98,1%</t>
   </si>
   <si>
-    <t>90,75%</t>
+    <t>88,97%</t>
   </si>
   <si>
     <t>96,35%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>97,12%</t>
+    <t>96,97%</t>
   </si>
   <si>
     <t>93,6%</t>
   </si>
   <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>97,16%</t>
+    <t>96,52%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>90,4%</t>
+    <t>90,34%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>99,18%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1237,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1270,39 +1333,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1354,7 +1417,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1465,13 +1528,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1480,6 +1536,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1544,19 +1607,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307C5513-8A49-4526-ABCC-3558BCDF0BDA}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC6EF8E-A6D9-40C5-BD7A-D76979F672E1}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1673,10 +1756,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>11669</v>
+        <v>811</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1688,13 +1771,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>13342</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -1703,19 +1786,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>25011</v>
+        <v>811</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,10 +1807,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>811</v>
+        <v>11669</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1739,13 +1822,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>13342</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -1754,19 +1837,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>811</v>
+        <v>25011</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,13 +1864,13 @@
         <v>12480</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -1796,13 +1879,13 @@
         <v>13342</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -1811,13 +1894,13 @@
         <v>25822</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,10 +1911,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>52033</v>
+        <v>3455</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1843,10 +1926,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>40502</v>
+        <v>3658</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1858,10 +1941,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>92536</v>
+        <v>7113</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1879,10 +1962,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D8" s="7">
-        <v>3455</v>
+        <v>52033</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1894,10 +1977,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I8" s="7">
-        <v>3658</v>
+        <v>40502</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1909,10 +1992,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="N8" s="7">
-        <v>7113</v>
+        <v>92536</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1936,13 +2019,13 @@
         <v>55488</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>66</v>
@@ -1951,13 +2034,13 @@
         <v>44160</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>151</v>
@@ -1966,13 +2049,13 @@
         <v>99649</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,10 +2066,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>88707</v>
+        <v>3397</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1998,10 +2081,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>92216</v>
+        <v>6311</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -2013,19 +2096,19 @@
         <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>180923</v>
+        <v>9708</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,49 +2117,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="D11" s="7">
-        <v>3397</v>
+        <v>88707</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>145</v>
+      </c>
+      <c r="I11" s="7">
+        <v>92216</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="7">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6311</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>280</v>
+      </c>
+      <c r="N11" s="7">
+        <v>180923</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="7">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7">
-        <v>9708</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2174,13 @@
         <v>92104</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>155</v>
@@ -2106,13 +2189,13 @@
         <v>98527</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>295</v>
@@ -2121,66 +2204,66 @@
         <v>190631</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>59604</v>
+        <v>1773</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2570</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="7">
-        <v>87</v>
-      </c>
-      <c r="I13" s="7">
-        <v>53083</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4343</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="7">
-        <v>181</v>
-      </c>
-      <c r="N13" s="7">
-        <v>112688</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,49 +2272,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="D14" s="7">
-        <v>1773</v>
+        <v>59604</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>87</v>
+      </c>
+      <c r="I14" s="7">
+        <v>53083</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2570</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>181</v>
+      </c>
+      <c r="N14" s="7">
+        <v>112688</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4343</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2329,13 @@
         <v>61377</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>91</v>
@@ -2261,13 +2344,13 @@
         <v>55653</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>188</v>
@@ -2276,66 +2359,66 @@
         <v>117031</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>84848</v>
+        <v>3281</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3015</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="7">
-        <v>98</v>
-      </c>
-      <c r="I16" s="7">
-        <v>75294</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>9</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6296</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M16" s="7">
-        <v>221</v>
-      </c>
-      <c r="N16" s="7">
-        <v>160142</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,25 +2427,25 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D17" s="7">
-        <v>3281</v>
+        <v>84848</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="I17" s="7">
-        <v>3015</v>
+        <v>75294</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
@@ -2374,10 +2457,10 @@
         <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="N17" s="7">
-        <v>6296</v>
+        <v>160142</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>97</v>
@@ -2401,13 +2484,13 @@
         <v>88129</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>102</v>
@@ -2416,13 +2499,13 @@
         <v>78309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>230</v>
@@ -2431,13 +2514,13 @@
         <v>166438</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,10 +2531,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>446</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>296862</v>
+        <v>12716</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>100</v>
@@ -2463,10 +2546,10 @@
         <v>102</v>
       </c>
       <c r="H19" s="7">
-        <v>407</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>274437</v>
+        <v>15555</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>103</v>
@@ -2478,10 +2561,10 @@
         <v>105</v>
       </c>
       <c r="M19" s="7">
-        <v>853</v>
+        <v>44</v>
       </c>
       <c r="N19" s="7">
-        <v>571300</v>
+        <v>28271</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>106</v>
@@ -2499,10 +2582,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>20</v>
+        <v>446</v>
       </c>
       <c r="D20" s="7">
-        <v>12716</v>
+        <v>296862</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>109</v>
@@ -2514,10 +2597,10 @@
         <v>111</v>
       </c>
       <c r="H20" s="7">
-        <v>24</v>
+        <v>407</v>
       </c>
       <c r="I20" s="7">
-        <v>15555</v>
+        <v>274437</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>112</v>
@@ -2529,10 +2612,10 @@
         <v>114</v>
       </c>
       <c r="M20" s="7">
-        <v>44</v>
+        <v>853</v>
       </c>
       <c r="N20" s="7">
-        <v>28271</v>
+        <v>571300</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>115</v>
@@ -2556,13 +2639,13 @@
         <v>309578</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>431</v>
@@ -2571,13 +2654,13 @@
         <v>289992</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>897</v>
@@ -2586,13 +2669,18 @@
         <v>599571</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2613,8 +2701,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A174A0D2-40C1-403B-9CF4-BE121AAEF168}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F87DA20-F93A-4F28-A0AA-71DD4129C58C}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2630,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2731,49 +2819,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>14490</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>926</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7">
-        <v>10349</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>24839</v>
+        <v>926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,49 +2870,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>14490</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>926</v>
+        <v>10349</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N5" s="7">
-        <v>926</v>
+        <v>24839</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2927,13 @@
         <v>14490</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -2854,13 +2942,13 @@
         <v>11275</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -2869,13 +2957,13 @@
         <v>25765</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,49 +2974,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>51725</v>
+        <v>5116</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>44412</v>
+        <v>7759</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
+        <v>19</v>
+      </c>
+      <c r="N7" s="7">
+        <v>12874</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="N7" s="7">
-        <v>96138</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,49 +3025,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
-        <v>5116</v>
+        <v>51725</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="7">
+        <v>62</v>
+      </c>
+      <c r="I8" s="7">
+        <v>44412</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="7">
         <v>137</v>
       </c>
-      <c r="H8" s="7">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7759</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M8" s="7">
-        <v>19</v>
-      </c>
       <c r="N8" s="7">
-        <v>12874</v>
+        <v>96138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +3082,13 @@
         <v>56841</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -3009,13 +3097,13 @@
         <v>52171</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>156</v>
@@ -3024,13 +3112,13 @@
         <v>109012</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,49 +3129,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>76709</v>
+        <v>17843</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>85659</v>
+        <v>12178</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="N10" s="7">
-        <v>162367</v>
+        <v>30021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,49 +3180,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7">
-        <v>17843</v>
+        <v>76709</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="I11" s="7">
-        <v>12178</v>
+        <v>85659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="N11" s="7">
-        <v>30021</v>
+        <v>162367</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3237,13 @@
         <v>94552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>148</v>
@@ -3164,13 +3252,13 @@
         <v>97837</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>289</v>
@@ -3179,66 +3267,66 @@
         <v>192388</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>61899</v>
+        <v>7182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>52381</v>
+        <v>12786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="N13" s="7">
-        <v>114280</v>
+        <v>19968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,49 +3335,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="D14" s="7">
-        <v>7182</v>
+        <v>61899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="I14" s="7">
-        <v>12786</v>
+        <v>52381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="N14" s="7">
-        <v>19968</v>
+        <v>114280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3392,13 @@
         <v>69081</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>100</v>
@@ -3319,13 +3407,13 @@
         <v>65167</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>209</v>
@@ -3334,66 +3422,66 @@
         <v>134248</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>81180</v>
+        <v>7726</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>71885</v>
+        <v>13840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>153064</v>
+        <v>21566</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,49 +3490,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="D17" s="7">
-        <v>7726</v>
+        <v>81180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I17" s="7">
-        <v>13840</v>
+        <v>71885</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="N17" s="7">
-        <v>21566</v>
+        <v>153064</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3547,13 @@
         <v>88906</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>110</v>
@@ -3474,13 +3562,13 @@
         <v>85725</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>232</v>
@@ -3489,13 +3577,13 @@
         <v>174630</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,49 +3594,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>415</v>
+        <v>56</v>
       </c>
       <c r="D19" s="7">
-        <v>286001</v>
+        <v>37868</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
-        <v>376</v>
+        <v>68</v>
       </c>
       <c r="I19" s="7">
-        <v>264686</v>
+        <v>47488</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
-        <v>791</v>
+        <v>124</v>
       </c>
       <c r="N19" s="7">
-        <v>550687</v>
+        <v>85356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,49 +3645,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>56</v>
+        <v>415</v>
       </c>
       <c r="D20" s="7">
-        <v>37868</v>
+        <v>286001</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
-        <v>68</v>
+        <v>376</v>
       </c>
       <c r="I20" s="7">
-        <v>47488</v>
+        <v>264686</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
-        <v>124</v>
+        <v>791</v>
       </c>
       <c r="N20" s="7">
-        <v>85356</v>
+        <v>550687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3702,13 @@
         <v>323869</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>444</v>
@@ -3629,13 +3717,13 @@
         <v>312174</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>915</v>
@@ -3644,13 +3732,18 @@
         <v>636043</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3671,8 +3764,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD8B60B-51AC-49E7-977E-17B14E899F20}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2FFDE2-2A7C-4894-8E9D-F49BE1A783F8}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3688,7 +3781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3789,49 +3882,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>11455</v>
+        <v>1752</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1827</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7">
-        <v>10896</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>22350</v>
+        <v>3580</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,49 +3933,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>1752</v>
+        <v>11455</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>1827</v>
+        <v>10896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="N5" s="7">
-        <v>3580</v>
+        <v>22350</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3990,13 @@
         <v>13207</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -3912,13 +4005,13 @@
         <v>12723</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -3927,13 +4020,13 @@
         <v>25930</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,49 +4037,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>51710</v>
+        <v>6126</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>53412</v>
+        <v>2869</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>105122</v>
+        <v>8995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,49 +4088,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>6126</v>
+        <v>51710</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="I8" s="7">
-        <v>2869</v>
+        <v>53412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="N8" s="7">
-        <v>8995</v>
+        <v>105122</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4145,13 @@
         <v>57836</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>80</v>
@@ -4067,13 +4160,13 @@
         <v>56281</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>155</v>
@@ -4082,13 +4175,13 @@
         <v>114117</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,49 +4192,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>91631</v>
+        <v>12380</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>94912</v>
+        <v>7985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
-        <v>274</v>
+        <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>186543</v>
+        <v>20365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,49 +4243,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="D11" s="7">
-        <v>12380</v>
+        <v>91631</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="I11" s="7">
-        <v>7985</v>
+        <v>94912</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
-        <v>32</v>
+        <v>274</v>
       </c>
       <c r="N11" s="7">
-        <v>20365</v>
+        <v>186543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4300,13 @@
         <v>104011</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>156</v>
@@ -4222,13 +4315,13 @@
         <v>102897</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>306</v>
@@ -4237,66 +4330,66 @@
         <v>206908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>67117</v>
+        <v>7504</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>63112</v>
+        <v>6797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>130229</v>
+        <v>14301</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,49 +4398,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D14" s="7">
-        <v>7504</v>
+        <v>67117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="I14" s="7">
-        <v>6797</v>
+        <v>63112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="N14" s="7">
-        <v>14301</v>
+        <v>130229</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>36</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4455,13 @@
         <v>74621</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>108</v>
@@ -4377,13 +4470,13 @@
         <v>69909</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>212</v>
@@ -4392,66 +4485,66 @@
         <v>144530</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>92198</v>
+        <v>7330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>91834</v>
+        <v>12050</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="N16" s="7">
-        <v>184031</v>
+        <v>19380</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,49 +4553,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="D17" s="7">
-        <v>7330</v>
+        <v>92198</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="I17" s="7">
-        <v>12050</v>
+        <v>91834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="N17" s="7">
-        <v>19380</v>
+        <v>184031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4610,13 @@
         <v>99528</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
@@ -4532,13 +4625,13 @@
         <v>103884</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>270</v>
@@ -4547,13 +4640,13 @@
         <v>203411</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,49 +4657,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>431</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>314111</v>
+        <v>35092</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
-        <v>449</v>
+        <v>44</v>
       </c>
       <c r="I19" s="7">
-        <v>314166</v>
+        <v>31528</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
-        <v>880</v>
+        <v>93</v>
       </c>
       <c r="N19" s="7">
-        <v>628276</v>
+        <v>66621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,49 +4708,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>431</v>
       </c>
       <c r="D20" s="7">
-        <v>35092</v>
+        <v>314111</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
-        <v>44</v>
+        <v>449</v>
       </c>
       <c r="I20" s="7">
-        <v>31528</v>
+        <v>314166</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
-        <v>93</v>
+        <v>880</v>
       </c>
       <c r="N20" s="7">
-        <v>66621</v>
+        <v>628276</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4765,13 @@
         <v>349203</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>493</v>
@@ -4687,13 +4780,13 @@
         <v>345694</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>973</v>
@@ -4702,13 +4795,18 @@
         <v>694897</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4729,8 +4827,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D99075-3285-4A7A-958E-0F26D35CBD69}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D233EF10-4C8C-467C-A768-0C342E6D5346}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4746,7 +4844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4847,49 +4945,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2324</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>3918</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,49 +4996,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2324</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>302</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3918</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +5053,13 @@
         <v>2324</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4970,13 +5068,13 @@
         <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -4985,13 +5083,13 @@
         <v>3918</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,49 +5100,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>39873</v>
+        <v>2092</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>31294</v>
+        <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>71166</v>
+        <v>2697</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,49 +5151,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7">
-        <v>2092</v>
+        <v>39873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7">
-        <v>605</v>
+        <v>31294</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="N8" s="7">
-        <v>2697</v>
+        <v>71166</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5208,13 @@
         <v>41965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -5125,13 +5223,13 @@
         <v>31899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -5140,13 +5238,13 @@
         <v>73863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,49 +5255,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>101713</v>
+        <v>621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>53407</v>
+        <v>3653</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>155121</v>
+        <v>4274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,49 +5306,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D11" s="7">
-        <v>621</v>
+        <v>101713</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>326</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="I11" s="7">
-        <v>3653</v>
+        <v>53407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="N11" s="7">
-        <v>4274</v>
+        <v>155121</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5363,13 @@
         <v>102334</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -5280,13 +5378,13 @@
         <v>57060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>197</v>
@@ -5295,66 +5393,66 @@
         <v>159395</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>62613</v>
+        <v>422</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>53951</v>
+        <v>1558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>116564</v>
+        <v>1980</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,49 +5461,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7">
-        <v>422</v>
+        <v>62613</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>1558</v>
+        <v>53951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>343</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="N14" s="7">
-        <v>1980</v>
+        <v>116564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5518,13 @@
         <v>63035</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -5435,13 +5533,13 @@
         <v>55509</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>130</v>
@@ -5450,66 +5548,66 @@
         <v>118544</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>54471</v>
+        <v>1871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>54161</v>
+        <v>2323</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>108632</v>
+        <v>4194</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,49 +5616,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>1871</v>
+        <v>54471</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>2323</v>
+        <v>54161</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="N17" s="7">
-        <v>4194</v>
+        <v>108632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5673,13 @@
         <v>56342</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>75</v>
@@ -5590,13 +5688,13 @@
         <v>56484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
@@ -5605,13 +5703,13 @@
         <v>112826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,49 +5720,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>298</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>260995</v>
+        <v>5006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H19" s="7">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>194406</v>
+        <v>8140</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>455401</v>
+        <v>13145</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,49 +5771,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="D20" s="7">
-        <v>5006</v>
+        <v>260995</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>368</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="I20" s="7">
-        <v>8140</v>
+        <v>194406</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="N20" s="7">
-        <v>13145</v>
+        <v>455401</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5828,13 @@
         <v>266001</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -5745,13 +5843,13 @@
         <v>202546</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>575</v>
@@ -5760,13 +5858,18 @@
         <v>468546</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_C_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_3_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB2BC50-1F4F-4C5F-871F-8A37A2931F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35ED0540-B47D-4E33-B5F0-070901CA0A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D9F1B4C-F0EF-499B-A437-F2B308262F2B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3C6225D-F62C-43C6-9C05-CA55086FC228}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="380">
   <si>
     <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,97%</t>
+    <t>28,81%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>15,67%</t>
+    <t>17,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>93,51%</t>
   </si>
   <si>
-    <t>67,03%</t>
+    <t>71,19%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,1117 +116,1069 @@
     <t>96,86%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2012 (Tasa respuesta: 43,59%)</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2012 (Tasa respuesta: 43,59%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>99,18%</t>
+    <t>99,17%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC6EF8E-A6D9-40C5-BD7A-D76979F672E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB43D958-DEF9-462A-8249-FA90CAC0144B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2105,10 +2057,10 @@
         <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2075,13 @@
         <v>88707</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -2138,13 +2090,13 @@
         <v>92216</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>280</v>
@@ -2153,13 +2105,13 @@
         <v>180923</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,7 +2167,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2227,13 +2179,13 @@
         <v>1773</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2242,13 +2194,13 @@
         <v>2570</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2257,13 +2209,13 @@
         <v>4343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2230,13 @@
         <v>59604</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -2293,13 +2245,13 @@
         <v>53083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>181</v>
@@ -2308,13 +2260,13 @@
         <v>112688</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2322,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2382,13 +2334,13 @@
         <v>3281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2397,13 +2349,13 @@
         <v>3015</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2412,13 +2364,13 @@
         <v>6296</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2385,13 @@
         <v>84848</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -2448,13 +2400,13 @@
         <v>75294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>221</v>
@@ -2463,13 +2415,13 @@
         <v>160142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2489,13 @@
         <v>12716</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -2552,13 +2504,13 @@
         <v>15555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -2567,13 +2519,13 @@
         <v>28271</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2540,13 @@
         <v>296862</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>407</v>
@@ -2603,13 +2555,13 @@
         <v>274437</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>853</v>
@@ -2618,13 +2570,13 @@
         <v>571300</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,7 +2632,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F87DA20-F93A-4F28-A0AA-71DD4129C58C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A27B825-87FB-4A94-9923-5763999537A9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2718,7 +2670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2831,7 +2783,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2840,7 +2792,7 @@
         <v>926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -2879,7 +2831,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2891,10 +2843,10 @@
         <v>10349</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2906,10 +2858,10 @@
         <v>24839</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2980,13 +2932,13 @@
         <v>5116</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2995,13 +2947,13 @@
         <v>7759</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -3010,13 +2962,13 @@
         <v>12874</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +2983,13 @@
         <v>51725</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -3046,13 +2998,13 @@
         <v>44412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="M8" s="7">
         <v>137</v>
@@ -3061,13 +3013,13 @@
         <v>96138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3087,13 @@
         <v>17843</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3150,13 +3102,13 @@
         <v>12178</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -3165,13 +3117,13 @@
         <v>30021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3138,13 @@
         <v>76709</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>129</v>
@@ -3201,13 +3153,13 @@
         <v>85659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>243</v>
@@ -3216,13 +3168,13 @@
         <v>162367</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,7 +3230,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3290,13 +3242,13 @@
         <v>7182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3305,13 +3257,13 @@
         <v>12786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -3320,13 +3272,13 @@
         <v>19968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3293,13 @@
         <v>61899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -3356,13 +3308,13 @@
         <v>52381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>179</v>
@@ -3371,13 +3323,13 @@
         <v>114280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,7 +3385,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3445,13 +3397,13 @@
         <v>7726</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -3460,13 +3412,13 @@
         <v>13840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -3475,13 +3427,13 @@
         <v>21566</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3448,13 @@
         <v>81180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -3511,13 +3463,13 @@
         <v>71885</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>204</v>
@@ -3526,13 +3478,13 @@
         <v>153064</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3552,13 @@
         <v>37868</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -3615,13 +3567,13 @@
         <v>47488</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>124</v>
@@ -3630,13 +3582,13 @@
         <v>85356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3603,13 @@
         <v>286001</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H20" s="7">
         <v>376</v>
@@ -3666,13 +3618,13 @@
         <v>264686</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>791</v>
@@ -3681,13 +3633,13 @@
         <v>550687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,7 +3695,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3764,7 +3716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2FFDE2-2A7C-4894-8E9D-F49BE1A783F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EE7F70-7B76-4ECB-8660-0D949DE98383}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3781,7 +3733,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3888,13 +3840,13 @@
         <v>1752</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3903,13 +3855,13 @@
         <v>1827</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3918,13 +3870,13 @@
         <v>3580</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,10 +3891,10 @@
         <v>11455</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3954,10 +3906,10 @@
         <v>10896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3969,13 +3921,13 @@
         <v>22350</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +3995,13 @@
         <v>6126</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4058,13 +4010,13 @@
         <v>2869</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4073,13 +4025,13 @@
         <v>8995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4046,13 @@
         <v>51710</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -4109,13 +4061,13 @@
         <v>53412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>143</v>
@@ -4124,13 +4076,13 @@
         <v>105122</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4150,13 @@
         <v>12380</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4213,13 +4165,13 @@
         <v>7985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -4228,13 +4180,13 @@
         <v>20365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4201,13 @@
         <v>91631</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H11" s="7">
         <v>143</v>
@@ -4264,13 +4216,13 @@
         <v>94912</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -4279,13 +4231,13 @@
         <v>186543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,7 +4293,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4353,13 +4305,13 @@
         <v>7504</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4368,13 +4320,13 @@
         <v>6797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4383,13 +4335,13 @@
         <v>14301</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4356,13 @@
         <v>67117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -4419,13 +4371,13 @@
         <v>63112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>192</v>
@@ -4434,13 +4386,13 @@
         <v>130229</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,7 +4448,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4508,13 +4460,13 @@
         <v>7330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4523,13 +4475,13 @@
         <v>12050</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4538,13 +4490,13 @@
         <v>19380</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4511,13 @@
         <v>92198</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>120</v>
@@ -4574,13 +4526,13 @@
         <v>91834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>245</v>
@@ -4589,13 +4541,13 @@
         <v>184031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4615,13 @@
         <v>35092</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>44</v>
@@ -4678,13 +4630,13 @@
         <v>31528</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -4693,13 +4645,13 @@
         <v>66621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4666,13 @@
         <v>314111</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>449</v>
@@ -4729,13 +4681,13 @@
         <v>314166</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>880</v>
@@ -4744,13 +4696,13 @@
         <v>628276</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,7 +4758,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4827,7 +4779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D233EF10-4C8C-467C-A768-0C342E6D5346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0802FA7-F539-4DE6-BE21-7C0401ED9E1B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4844,7 +4796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4957,7 +4909,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4972,7 +4924,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4987,7 +4939,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,7 +4957,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5020,7 +4972,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -5035,7 +4987,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -5106,13 +5058,13 @@
         <v>2092</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5121,13 +5073,13 @@
         <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5136,13 +5088,13 @@
         <v>2697</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5109,13 @@
         <v>39873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>323</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -5172,10 +5124,10 @@
         <v>31294</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5187,13 +5139,13 @@
         <v>71166</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5213,13 @@
         <v>621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5276,13 +5228,13 @@
         <v>3653</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5291,13 +5243,13 @@
         <v>4274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>103</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,10 +5264,10 @@
         <v>101713</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -5327,13 +5279,13 @@
         <v>53407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>191</v>
@@ -5342,13 +5294,13 @@
         <v>155121</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,7 +5356,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5416,13 +5368,13 @@
         <v>422</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5431,13 +5383,13 @@
         <v>1558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5446,13 +5398,13 @@
         <v>1980</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,10 +5419,10 @@
         <v>62613</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -5482,10 +5434,10 @@
         <v>53951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -5497,13 +5449,13 @@
         <v>116564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,7 +5511,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5571,13 +5523,13 @@
         <v>1871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5586,13 +5538,13 @@
         <v>2323</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -5601,13 +5553,13 @@
         <v>4194</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,10 +5574,10 @@
         <v>54471</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -5637,13 +5589,13 @@
         <v>54161</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>140</v>
@@ -5652,13 +5604,13 @@
         <v>108632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5678,13 @@
         <v>5006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -5741,13 +5693,13 @@
         <v>8140</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -5756,13 +5708,13 @@
         <v>13145</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5729,13 @@
         <v>260995</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -5792,13 +5744,13 @@
         <v>194406</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="M20" s="7">
         <v>557</v>
@@ -5807,13 +5759,13 @@
         <v>455401</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,7 +5821,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
